--- a/src/test/java/resources/excelData.xlsx
+++ b/src/test/java/resources/excelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\CWJUnitProjectDefault\src\test\java\tests\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umitkalemkus\IdeaProjects\CWJunitSelenium\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42608E2B-0FDD-41F2-A9A2-C2F4504574A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AC039F-B7D0-4E91-80EE-504FE0272D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9870" yWindow="3405" windowWidth="17040" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="informationData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
   <si>
     <t>First Name </t>
   </si>
@@ -105,16 +105,217 @@
     <t>100 Money Way, 400 West</t>
   </si>
   <si>
-    <t>Karl</t>
-  </si>
-  <si>
-    <t>Ortis</t>
-  </si>
-  <si>
-    <t>karl@cw.com</t>
-  </si>
-  <si>
-    <t>012345678</t>
+    <t xml:space="preserve">Umit </t>
+  </si>
+  <si>
+    <t>Kalemkus</t>
+  </si>
+  <si>
+    <t>Umitkalemkus@yahoo.com</t>
+  </si>
+  <si>
+    <t>01234567</t>
+  </si>
+  <si>
+    <t>Mouth Pleasnt</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>Schumm</t>
+  </si>
+  <si>
+    <t>paula.mclaughlin@gmail.com</t>
+  </si>
+  <si>
+    <t>Stockwell</t>
+  </si>
+  <si>
+    <t>956.580.3154</t>
+  </si>
+  <si>
+    <t>51530 Steuber Roads</t>
+  </si>
+  <si>
+    <t>Shanita</t>
+  </si>
+  <si>
+    <t>Waters</t>
+  </si>
+  <si>
+    <t>frederick.breitenberg@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mils</t>
+  </si>
+  <si>
+    <t>(413) 125-4420</t>
+  </si>
+  <si>
+    <t>13512 Lakin Crossing</t>
+  </si>
+  <si>
+    <t>Talia</t>
+  </si>
+  <si>
+    <t>Bednar</t>
+  </si>
+  <si>
+    <t>ilda.kunde@hotmail.com</t>
+  </si>
+  <si>
+    <t>Sahasrahla</t>
+  </si>
+  <si>
+    <t>(800) 351-6709</t>
+  </si>
+  <si>
+    <t>02568 Veum Alley</t>
+  </si>
+  <si>
+    <t>Stephan</t>
+  </si>
+  <si>
+    <t>Lynch</t>
+  </si>
+  <si>
+    <t>claudio.orn@yahoo.com</t>
+  </si>
+  <si>
+    <t>Rem</t>
+  </si>
+  <si>
+    <t>701.347.1322</t>
+  </si>
+  <si>
+    <t>046 Kassulke Avenue</t>
+  </si>
+  <si>
+    <t>Ramonita</t>
+  </si>
+  <si>
+    <t>Heller</t>
+  </si>
+  <si>
+    <t>pearlie.weber@hotmail.com</t>
+  </si>
+  <si>
+    <t>Fairy</t>
+  </si>
+  <si>
+    <t>(648) 720-5892</t>
+  </si>
+  <si>
+    <t>4556 Odell Ridge</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>drew.hermiston@gmail.com</t>
+  </si>
+  <si>
+    <t>Gorman</t>
+  </si>
+  <si>
+    <t>427-081-7672</t>
+  </si>
+  <si>
+    <t>410 Kaye Garden</t>
+  </si>
+  <si>
+    <t>Lakita</t>
+  </si>
+  <si>
+    <t>Fay</t>
+  </si>
+  <si>
+    <t>mechelle.jenkins@hotmail.com</t>
+  </si>
+  <si>
+    <t>Nanna</t>
+  </si>
+  <si>
+    <t>354-853-7689</t>
+  </si>
+  <si>
+    <t>06763 Spinka Pike</t>
+  </si>
+  <si>
+    <t>Colby</t>
+  </si>
+  <si>
+    <t>Weissnat</t>
+  </si>
+  <si>
+    <t>gema.dare@hotmail.com</t>
+  </si>
+  <si>
+    <t>Rola</t>
+  </si>
+  <si>
+    <t>1-794-674-9566</t>
+  </si>
+  <si>
+    <t>81223 Mike Freeway</t>
+  </si>
+  <si>
+    <t>Ehtel</t>
+  </si>
+  <si>
+    <t>Mueller</t>
+  </si>
+  <si>
+    <t>tanesha.bins@gmail.com</t>
+  </si>
+  <si>
+    <t>Prince Ralis</t>
+  </si>
+  <si>
+    <t>138-713-4460</t>
+  </si>
+  <si>
+    <t>34575 Dianne Tunnel</t>
+  </si>
+  <si>
+    <t>Alycia</t>
+  </si>
+  <si>
+    <t>Donnelly</t>
+  </si>
+  <si>
+    <t>roy.boyle@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mipha</t>
+  </si>
+  <si>
+    <t>770.155.6693</t>
+  </si>
+  <si>
+    <t>712 Fahey Brooks</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Grimes</t>
+  </si>
+  <si>
+    <t>emma.luettgen@hotmail.com</t>
+  </si>
+  <si>
+    <t>Hurdy Gurdy Man</t>
+  </si>
+  <si>
+    <t>(328) 567-6549</t>
+  </si>
+  <si>
+    <t>09409 Feil Well</t>
   </si>
 </sst>
 </file>
@@ -181,7 +382,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,21 +664,21 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="11.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="14.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="17.7109375" collapsed="false"/>
-    <col min="4" max="4" style="3" width="9.140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="3" width="11.7109375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="3" width="30.140625" collapsed="false"/>
-    <col min="7" max="16384" style="3" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="3" width="11.0"/>
+    <col min="2" max="2" customWidth="true" style="3" width="14.0"/>
+    <col min="3" max="3" customWidth="true" style="3" width="17.6640625"/>
+    <col min="4" max="4" style="3" width="9.109375"/>
+    <col min="5" max="5" customWidth="true" style="3" width="11.6640625"/>
+    <col min="6" max="6" customWidth="true" style="3" width="30.109375"/>
+    <col min="7" max="16384" style="3" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -497,7 +698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -517,7 +718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -537,60 +738,100 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s" s="3">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s" s="3">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s" s="3">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="3">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s" s="3">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s" s="3">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s" s="3">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s" s="3">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s" s="3">
+    <row r="6">
+      <c r="A6" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="F7" t="s" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s" s="3">
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
